--- a/output_data/charts/capacity-Dublin-1600000US3922694.xlsx
+++ b/output_data/charts/capacity-Dublin-1600000US3922694.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,13 +513,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19200</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,7 +683,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>248000</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -850,7 +850,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -859,49 +859,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4700</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17000</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14500</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27100</c:v>
+                  <c:v>27.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131600</c:v>
+                  <c:v>131.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>99300</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183015</c:v>
+                  <c:v>183.015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>127020</c:v>
+                  <c:v>127.02</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>256140</c:v>
+                  <c:v>256.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>276986</c:v>
+                  <c:v>276.986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>4700</v>
+        <v>4.7</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>9000</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>248000</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2">
-        <v>17000</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>14500</v>
+        <v>14.5</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>27100</v>
+        <v>27.1</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>131600</v>
+        <v>131.6</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>99300</v>
+        <v>99.3</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>183015</v>
+        <v>183.015</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>127020</v>
+        <v>127.02</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>256140</v>
+        <v>256.14</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>19200</v>
+        <v>19.2</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>276986</v>
+        <v>276.986</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Dublin-1600000US3922694.xlsx
+++ b/output_data/charts/capacity-Dublin-1600000US3922694.xlsx
@@ -901,7 +901,7 @@
                   <c:v>256.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>276.986</c:v>
+                  <c:v>364.672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>276.986</v>
+        <v>364.672</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
